--- a/Leet code tracking.xlsx
+++ b/Leet code tracking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15320" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="11740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="2" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2019,6 +2019,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2391,1215 +2394,1215 @@
   <sheetPr/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.9296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.9296875" style="11" customWidth="1"/>
     <col min="2" max="2" width="13.9296875" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.796875" style="6" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>27</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="17">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" ht="24" spans="1:5">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>26</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>26</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:5">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>80</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>80</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>277</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>277</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:5">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>189</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>189</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>41</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>41</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>299</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>299</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>134</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>134</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>118</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>118</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>119</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <v>119</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>169</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <v>169</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>229</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <v>229</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>274</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="17">
         <v>274</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" ht="24" spans="1:5">
-      <c r="A18" s="15">
+      <c r="A18" s="16">
         <v>275</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="17">
         <v>275</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15">
+      <c r="A19" s="16">
         <v>243</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="20">
         <v>243</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15">
+      <c r="A20" s="16">
         <v>244</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="20">
         <v>244</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15">
+      <c r="A21" s="16">
         <v>245</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="20">
         <v>245</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>217</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="17">
         <v>217</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15">
+      <c r="A23" s="16">
         <v>219</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="17">
         <v>219</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15">
+      <c r="A24" s="16">
         <v>220</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="19">
         <v>220</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>55</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <v>55</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>45</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <v>45</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15">
+      <c r="A27" s="16">
         <v>121</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="19">
         <v>121</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15">
+      <c r="A28" s="16">
         <v>122</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <v>122</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15">
+      <c r="A29" s="16">
         <v>123</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <v>123</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="18"/>
+      <c r="D29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15">
+      <c r="A30" s="16">
         <v>188</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>188</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" ht="24" spans="1:5">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>309</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <v>309</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="18"/>
+      <c r="D31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15">
+      <c r="A32" s="16">
         <v>11</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <v>11</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15">
+      <c r="A33" s="16">
         <v>42</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <v>42</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15">
+      <c r="A34" s="16">
         <v>334</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>334</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="18"/>
+      <c r="D34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15">
+      <c r="A35" s="16">
         <v>128</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>128</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="18"/>
+      <c r="D35" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15">
+      <c r="A36" s="16">
         <v>164</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <v>164</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="18" t="s">
+      <c r="D36" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15">
+      <c r="A37" s="16">
         <v>287</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <v>287</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15">
+      <c r="A38" s="16">
         <v>135</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="19">
         <v>135</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15">
+      <c r="A39" s="16">
         <v>330</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="19">
         <v>330</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15">
+      <c r="A41" s="16">
         <v>4</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="19">
         <v>4</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="D41" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15">
+      <c r="A42" s="16">
         <v>321</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="19">
         <v>321</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="18" t="s">
+      <c r="D42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15">
+      <c r="A43" s="16">
         <v>327</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="19">
         <v>327</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="18"/>
+      <c r="D43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15">
+      <c r="A44" s="16">
         <v>289</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="19">
         <v>289</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="18"/>
+      <c r="D44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15">
+      <c r="A46" s="16">
         <v>57</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="19">
         <v>57</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15">
+      <c r="A47" s="16">
         <v>56</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="19">
         <v>56</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15">
+      <c r="A48" s="16">
         <v>252</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="19">
         <v>252</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15">
+      <c r="A49" s="16">
         <v>253</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="19">
         <v>253</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="15">
+      <c r="A50" s="16">
         <v>352</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="19">
         <v>352</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="15">
+      <c r="A52" s="16">
         <v>239</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="19">
         <v>239</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="18"/>
+      <c r="D52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15">
+      <c r="A53" s="16">
         <v>295</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="19">
         <v>295</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="18"/>
+      <c r="D53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="15">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="19">
         <v>53</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="18"/>
+      <c r="D54" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" ht="24" spans="1:5">
-      <c r="A55" s="15">
+      <c r="A55" s="16">
         <v>325</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="19">
         <v>325</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="18"/>
+      <c r="D55" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="15">
+      <c r="A56" s="16">
         <v>209</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="19">
         <v>209</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="18"/>
+      <c r="D56" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="15">
+      <c r="A57" s="16">
         <v>238</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="19">
         <v>238</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="18"/>
+      <c r="D57" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15">
+      <c r="A58" s="16">
         <v>152</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="19">
         <v>152</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="18"/>
+      <c r="D58" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="15">
+      <c r="A59" s="16">
         <v>228</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="19">
         <v>228</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="18"/>
+      <c r="D59" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="15">
+      <c r="A60" s="16">
         <v>163</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="19">
         <v>163</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="18"/>
+      <c r="D60" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="15">
+      <c r="A62" s="16">
         <v>88</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="19">
         <v>88</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="18"/>
+      <c r="D62" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="15">
+      <c r="A63" s="16">
         <v>75</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="19">
         <v>75</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="18"/>
+      <c r="D63" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15">
+      <c r="A64" s="16">
         <v>283</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="19">
         <v>283</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="18"/>
+      <c r="D64" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="15">
+      <c r="A65" s="16">
         <v>376</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="19">
         <v>376</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="18"/>
+      <c r="D65" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="15">
+      <c r="A66" s="16">
         <v>280</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="19">
         <v>280</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="18"/>
+      <c r="D66" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="15">
+      <c r="A67" s="16">
         <v>324</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="19">
         <v>324</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="18"/>
+      <c r="D67" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="15">
+      <c r="A68" s="16">
         <v>278</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="19">
         <v>278</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="18"/>
+      <c r="D68" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="15">
+      <c r="A69" s="16">
         <v>35</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="19">
         <v>35</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="18"/>
+      <c r="D69" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="19"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="15">
+      <c r="A70" s="16">
         <v>33</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="19">
         <v>33</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="18"/>
+      <c r="D70" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="15">
+      <c r="A71" s="16">
         <v>81</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="19">
         <v>81</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="18"/>
+      <c r="D71" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" ht="24" spans="1:5">
-      <c r="A72" s="15">
+      <c r="A72" s="16">
         <v>153</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="19">
         <v>153</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="18"/>
+      <c r="D72" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" ht="24" spans="1:5">
-      <c r="A73" s="15">
+      <c r="A73" s="16">
         <v>154</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="19">
         <v>154</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="18"/>
+      <c r="D73" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="19"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="15">
+      <c r="A74" s="16">
         <v>162</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="19">
         <v>162</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="18"/>
+      <c r="D74" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="19"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="15">
+      <c r="A75" s="16">
         <v>374</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="19">
         <v>374</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="18"/>
+      <c r="D75" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="19"/>
     </row>
     <row r="76" ht="24" spans="1:5">
-      <c r="A76" s="15">
+      <c r="A76" s="16">
         <v>34</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="19">
         <v>34</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="18"/>
+      <c r="D76" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="19"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="15">
+      <c r="A77" s="16">
         <v>349</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="19">
         <v>349</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="18"/>
+      <c r="D77" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="19"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="15">
+      <c r="A78" s="16">
         <v>350</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="19">
         <v>350</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="18"/>
+      <c r="D78" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="19"/>
     </row>
     <row r="79" ht="24" spans="1:5">
-      <c r="A79" s="15">
+      <c r="A79" s="16">
         <v>315</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="19">
         <v>315</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="18"/>
+      <c r="D79" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="19"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="15">
+      <c r="A80" s="16">
         <v>300</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="19">
         <v>300</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="18"/>
+      <c r="D80" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="19"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="15">
+      <c r="A81" s="16">
         <v>354</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="19">
         <v>354</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="14"/>
+      <c r="D81" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5233,8 +5236,8 @@
   <sheetPr/>
   <dimension ref="B1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -5290,7 +5293,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5302,7 +5305,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="24.75" spans="2:5">
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>387</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5314,7 +5317,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>383</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5326,7 +5329,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>344</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5338,7 +5341,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5350,7 +5353,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>186</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5362,7 +5365,7 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>345</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5374,7 +5377,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5386,7 +5389,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>293</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5398,7 +5401,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="1">
+      <c r="B16" s="10">
         <v>294</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5664,7 +5667,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" ht="24.75" spans="2:5">
-      <c r="B38" s="1">
+      <c r="B38" s="10">
         <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5676,7 +5679,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" ht="24.75" spans="2:5">
-      <c r="B39" s="1">
+      <c r="B39" s="10">
         <v>158</v>
       </c>
       <c r="C39" s="2" t="s">
